--- a/one/src/main/resources/conf/templates/pi-20160316.xlsx
+++ b/one/src/main/resources/conf/templates/pi-20160316.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\project\skysport160205\one\src\main\resources\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\project\skysport160205\one\src\main\resources\conf\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -233,21 +233,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商标编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺码表
-编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商标、尺标、水洗标定位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水洗标
-编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -478,6 +464,18 @@
   </si>
   <si>
     <t>${productionInstruction.scaleRemark}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商标编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺码表编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水洗标编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +483,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,12 +559,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -582,7 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,116 +766,122 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1139,107 +1166,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="9" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="81" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.25">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="E2" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="30"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.25">
+        <v>66</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="E3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I3" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="30"/>
+      <c r="B4" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.25">
+        <v>70</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
@@ -1254,210 +1282,210 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-    </row>
-    <row r="23" spans="1:10" ht="14.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+    </row>
+    <row r="23" spans="1:10" ht="21" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>4</v>
       </c>
@@ -1471,71 +1499,71 @@
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:10" ht="21" customHeight="1">
+      <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="10" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="36">
+      <c r="A25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="H25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="I25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="J25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.25">
+    </row>
+    <row r="26" spans="1:10" ht="21" customHeight="1">
       <c r="A26" s="19" t="s">
         <v>10</v>
       </c>
@@ -1549,71 +1577,71 @@
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:10" ht="21" customHeight="1">
+      <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="10" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="36">
+      <c r="A28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="E28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="F28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="H28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="I28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="J28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.25">
+    </row>
+    <row r="29" spans="1:10" ht="21" customHeight="1">
       <c r="A29" s="19" t="s">
         <v>11</v>
       </c>
@@ -1627,71 +1655,71 @@
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
     </row>
-    <row r="30" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:10" ht="21" customHeight="1">
+      <c r="A30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="10" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:10" s="3" customFormat="1" ht="36">
+      <c r="A31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="F31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="I31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="J31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.25">
+    </row>
+    <row r="32" spans="1:10" ht="21" customHeight="1">
       <c r="A32" s="19" t="s">
         <v>5</v>
       </c>
@@ -1706,20 +1734,20 @@
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" ht="75" customHeight="1">
-      <c r="A33" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.25">
+      <c r="A33" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="1:10" ht="21" customHeight="1">
       <c r="A34" s="19" t="s">
         <v>6</v>
       </c>
@@ -1734,134 +1762,134 @@
       <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" ht="75" customHeight="1">
-      <c r="A35" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.25">
-      <c r="A36" s="25" t="s">
+      <c r="A35" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="1:10" ht="21" customHeight="1">
+      <c r="A36" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" ht="21" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="1:10" ht="21" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="27"/>
-    </row>
-    <row r="37" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="28" t="s">
+      <c r="E38" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="1:10" ht="21" customHeight="1">
+      <c r="A39" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-    </row>
-    <row r="38" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="28" t="s">
+      <c r="C39" s="21"/>
+      <c r="D39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-    </row>
-    <row r="39" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="24"/>
-    </row>
-    <row r="41" spans="1:10" ht="14.25">
-      <c r="A41" s="25" t="s">
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+    </row>
+    <row r="41" spans="1:10" ht="21" customHeight="1">
+      <c r="A41" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="27"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" ht="75" customHeight="1">
-      <c r="A42" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="1:10" ht="14.25">
+      <c r="A42" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="1:10" ht="21" customHeight="1">
       <c r="A43" s="19" t="s">
         <v>9</v>
       </c>
@@ -1876,20 +1904,20 @@
       <c r="J43" s="19"/>
     </row>
     <row r="44" spans="1:10" ht="75" customHeight="1">
-      <c r="A44" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="1:10" ht="14.25">
+      <c r="A44" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" spans="1:10" ht="21" customHeight="1">
       <c r="A45" s="19" t="s">
         <v>8</v>
       </c>
@@ -1904,38 +1932,29 @@
       <c r="J45" s="19"/>
     </row>
     <row r="46" spans="1:10" ht="75" customHeight="1">
-      <c r="A46" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="18"/>
+      <c r="A46" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="24"/>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A45:J45"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A23:J23"/>
@@ -1951,12 +1970,21 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="A33:J33"/>
     <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
     <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A45:J45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.47" right="0.44" top="0.49" bottom="0.54" header="0.3" footer="0.3"/>
